--- a/Planning-BauX/planning.xlsx
+++ b/Planning-BauX/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AminT\Desktop\Planning-BauX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\project-proposal-baux\Planning-BauX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E92D52-7929-497B-BE80-13458826453A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D6E70-DEBB-4586-BBE4-9D41985C9ED0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8285EE92-4B6F-4FEC-ACE7-A6F10B7016A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8285EE92-4B6F-4FEC-ACE7-A6F10B7016A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -458,13 +458,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -488,7 +488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -496,7 +496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -504,7 +504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -512,7 +512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
